--- a/stat-testing-using-interpret-ml/data/diabetes_20230809.xlsx
+++ b/stat-testing-using-interpret-ml/data/diabetes_20230809.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univie365-my.sharepoint.com/personal/steyrld69_univie_ac_at/Documents/ML-Dev/stat-testing-with-interpret-ml/scripts/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univie365-my.sharepoint.com/personal/steyrld69_univie_ac_at/Documents/ML-dev/stat-testing-with-interpret-ml/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_3CD9D6B28740DA78D3B92411595ED87656CFC8F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C359E19C-23BA-4AEC-993C-1CB504C0D968}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_3CD9D6B28740DA78D3B92411595ED87656CFC8F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ACF47BA-7E03-43D3-B921-D0BD2D69C85D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -72,14 +72,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -420,21 +420,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L443"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -17282,21 +17284,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52501E32-49E9-474D-BED4-6176107A5198}">
   <dimension ref="A1:L443"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
